--- a/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_snp.xlsx
+++ b/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_snp.xlsx
@@ -58,7 +58,7 @@
     <t>sample1</t>
   </si>
   <si>
-    <t>chr3</t>
+    <t>chr4</t>
   </si>
   <si>
     <t>sample2</t>
@@ -454,37 +454,37 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>400372</v>
+        <v>35826</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>29066</v>
+        <v>5377</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>29044</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5377</v>
       </c>
       <c r="J2">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>99.92</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -495,34 +495,34 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>400373</v>
+        <v>35827</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>29152</v>
+        <v>5379</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>29131</v>
+        <v>5376</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K3">
-        <v>99.93</v>
+        <v>99.94</v>
       </c>
       <c r="L3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -536,37 +536,37 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>400374</v>
+        <v>35828</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>29347</v>
+        <v>5390</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>29329</v>
+        <v>5390</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>99.94</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -577,37 +577,37 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>400375</v>
+        <v>35829</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>29173</v>
+        <v>5405</v>
       </c>
       <c r="F5">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>29031</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>5405</v>
       </c>
       <c r="I5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>99.51</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.12</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -618,37 +618,37 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>400376</v>
+        <v>35830</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>29182</v>
+        <v>5430</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5429</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>29170</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>99.98</v>
       </c>
       <c r="K6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0.02</v>
       </c>
       <c r="M6">
-        <v>99.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -659,37 +659,37 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>400377</v>
+        <v>35831</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>29097</v>
+        <v>5444</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5442</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>29071</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>99.96</v>
       </c>
       <c r="K7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="M7">
-        <v>99.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -700,37 +700,37 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>400378</v>
+        <v>35832</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>28993</v>
+        <v>5452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>28964</v>
+        <v>5451</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L8">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>99.9</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -741,37 +741,37 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>400379</v>
+        <v>35833</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>28663</v>
+        <v>5450</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5450</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>100</v>
       </c>
-      <c r="G9">
-        <v>28495</v>
-      </c>
-      <c r="H9">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <v>0.35</v>
-      </c>
-      <c r="K9">
-        <v>99.41</v>
-      </c>
       <c r="L9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -782,37 +782,37 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>400380</v>
+        <v>35834</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>29449</v>
+        <v>5455</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>5453</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>29435</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>0.02</v>
+        <v>99.96</v>
       </c>
       <c r="L10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>99.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -823,37 +823,37 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>400381</v>
+        <v>35835</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>29503</v>
+        <v>5445</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>45</v>
+        <v>5445</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>29452</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>99.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -864,37 +864,37 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>400382</v>
+        <v>35836</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>29296</v>
+        <v>5453</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>5453</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>28188</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.13</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>96.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -905,37 +905,37 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>400383</v>
+        <v>35837</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>29086</v>
+        <v>5464</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5463</v>
       </c>
       <c r="G13">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>29020</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>99.98</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0.02</v>
       </c>
       <c r="M13">
-        <v>99.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -946,37 +946,37 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>400384</v>
+        <v>35838</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14">
-        <v>29080</v>
+        <v>5517</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>29003</v>
+        <v>5511</v>
       </c>
       <c r="I14">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K14">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="L14">
-        <v>99.74</v>
+        <v>99.89</v>
       </c>
       <c r="M14">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -987,37 +987,37 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>400385</v>
+        <v>35839</v>
       </c>
       <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>5518</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>28561</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>27506</v>
-      </c>
       <c r="H15">
-        <v>1031</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5509</v>
       </c>
       <c r="J15">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>96.31</v>
+        <v>0.11</v>
       </c>
       <c r="L15">
-        <v>3.61</v>
+        <v>0.05</v>
       </c>
       <c r="M15">
-        <v>0.01</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1028,37 +1028,37 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>400386</v>
+        <v>35840</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16">
-        <v>28794</v>
+        <v>5520</v>
       </c>
       <c r="F16">
-        <v>28761</v>
+        <v>5518</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>99.89</v>
+        <v>99.96</v>
       </c>
       <c r="K16">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L16">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1069,37 +1069,37 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>400387</v>
+        <v>35841</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>29013</v>
+        <v>5536</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>5536</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>28953</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="L17">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>99.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1110,37 +1110,37 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>400388</v>
+        <v>35842</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>29420</v>
+        <v>5543</v>
       </c>
       <c r="F18">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>28325</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>5543</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>96.28</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>0.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1151,37 +1151,37 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>400389</v>
+        <v>35843</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>28417</v>
+        <v>5544</v>
       </c>
       <c r="F19">
-        <v>28319</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>5544</v>
       </c>
       <c r="I19">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>99.66</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.11</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1192,37 +1192,37 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>400390</v>
+        <v>35844</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>28242</v>
+        <v>5558</v>
       </c>
       <c r="F20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>28161</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5557</v>
       </c>
       <c r="I20">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>99.71</v>
+        <v>0.02</v>
       </c>
       <c r="L20">
-        <v>0.01</v>
+        <v>99.98</v>
       </c>
       <c r="M20">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1233,37 +1233,37 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>400391</v>
+        <v>35845</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>28215</v>
+        <v>5546</v>
       </c>
       <c r="F21">
-        <v>1023</v>
+        <v>5546</v>
       </c>
       <c r="G21">
-        <v>27185</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3.63</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>96.35</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1274,37 +1274,37 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>400392</v>
+        <v>35846</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>28728</v>
+        <v>5549</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>5545</v>
       </c>
       <c r="G22">
-        <v>28690</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06</v>
+        <v>99.93</v>
       </c>
       <c r="K22">
-        <v>99.87</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.03</v>
+        <v>0.07</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1315,37 +1315,37 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>400393</v>
+        <v>35847</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>28941</v>
+        <v>5549</v>
       </c>
       <c r="F23">
-        <v>28932</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>5549</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>99.97</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.02</v>
+        <v>100</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1356,37 +1356,37 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>400394</v>
+        <v>35848</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>29009</v>
+        <v>5551</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>5551</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>28982</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>99.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1397,37 +1397,37 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>400395</v>
+        <v>35849</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>28549</v>
+        <v>5568</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>43</v>
+        <v>5566</v>
       </c>
       <c r="H25">
-        <v>28478</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>0.15</v>
+        <v>99.96</v>
       </c>
       <c r="L25">
-        <v>99.75</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1438,37 +1438,37 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>400396</v>
+        <v>35850</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>28631</v>
+        <v>5535</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5529</v>
       </c>
       <c r="H26">
-        <v>28619</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>99.89</v>
       </c>
       <c r="L26">
-        <v>99.96</v>
+        <v>0.04</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1479,37 +1479,37 @@
         <v>14</v>
       </c>
       <c r="C27">
-        <v>400397</v>
+        <v>35851</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>28635</v>
+        <v>5537</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>5537</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>28625</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="K27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>99.97</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1520,26 +1520,26 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>400398</v>
+        <v>35852</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>28657</v>
+        <v>5726</v>
       </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>5725</v>
+      </c>
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>28636</v>
-      </c>
-      <c r="I28">
-        <v>19</v>
-      </c>
       <c r="J28">
         <v>0</v>
       </c>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>99.93</v>
+        <v>99.98</v>
       </c>
       <c r="M28">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1561,37 +1561,37 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>400399</v>
+        <v>35853</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>28675</v>
+        <v>5727</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>28629</v>
+        <v>5725</v>
       </c>
       <c r="I29">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>99.84</v>
+        <v>99.97</v>
       </c>
       <c r="M29">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1602,34 +1602,34 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <v>400400</v>
+        <v>35854</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>28635</v>
+        <v>5755</v>
       </c>
       <c r="F30">
-        <v>28622</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>5755</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>99.95</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.02</v>
+        <v>100</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1643,22 +1643,22 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>400401</v>
+        <v>35855</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31">
-        <v>28699</v>
+        <v>5753</v>
       </c>
       <c r="F31">
-        <v>28680</v>
+        <v>5749</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>99.93</v>
       </c>
       <c r="K31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0.02</v>
+        <v>0.07</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -1684,37 +1684,37 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>400402</v>
+        <v>35856</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>28367</v>
+        <v>5755</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>5750</v>
       </c>
       <c r="G32">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>28280</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.03</v>
+        <v>99.91</v>
       </c>
       <c r="K32">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>99.69</v>
+        <v>0.09</v>
       </c>
       <c r="M32">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1725,34 +1725,34 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>400403</v>
+        <v>35857</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>28454</v>
+        <v>5750</v>
       </c>
       <c r="F33">
-        <v>28446</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>5748</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
+        <v>0.03</v>
+      </c>
+      <c r="K33">
         <v>99.97</v>
       </c>
-      <c r="K33">
-        <v>0.02</v>
-      </c>
       <c r="L33">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -1766,37 +1766,37 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>400404</v>
+        <v>35858</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>28406</v>
+        <v>5751</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>5748</v>
       </c>
       <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>28382</v>
-      </c>
       <c r="I34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J34">
+        <v>99.95</v>
+      </c>
+      <c r="K34">
+        <v>0.03</v>
+      </c>
+      <c r="L34">
         <v>0.02</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>99.92</v>
-      </c>
       <c r="M34">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1807,37 +1807,37 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>400405</v>
+        <v>35859</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>28360</v>
+        <v>5679</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>5679</v>
       </c>
       <c r="H35">
-        <v>28316</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="L35">
-        <v>99.84</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1848,37 +1848,37 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <v>400406</v>
+        <v>35860</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
       <c r="E36">
-        <v>28359</v>
+        <v>5657</v>
       </c>
       <c r="F36">
-        <v>28343</v>
+        <v>5657</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>99.94</v>
+        <v>100</v>
       </c>
       <c r="K36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1889,34 +1889,34 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>400407</v>
+        <v>35861</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>28294</v>
+        <v>5719</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>5718</v>
       </c>
       <c r="G37">
-        <v>28272</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.04</v>
+        <v>99.98</v>
       </c>
       <c r="K37">
-        <v>99.92</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -1930,37 +1930,37 @@
         <v>14</v>
       </c>
       <c r="C38">
-        <v>400408</v>
+        <v>35862</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>28347</v>
+        <v>5743</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>5741</v>
       </c>
       <c r="H38">
-        <v>28326</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K38">
-        <v>0.03</v>
+        <v>99.97</v>
       </c>
       <c r="L38">
-        <v>99.93</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1971,34 +1971,34 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>400409</v>
+        <v>35863</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39">
-        <v>28133</v>
+        <v>5743</v>
       </c>
       <c r="F39">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>28101</v>
+        <v>5740</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K39">
-        <v>99.89</v>
+        <v>99.95</v>
       </c>
       <c r="L39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2012,34 +2012,34 @@
         <v>14</v>
       </c>
       <c r="C40">
-        <v>400410</v>
+        <v>35864</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40">
-        <v>28075</v>
+        <v>5711</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>28065</v>
+        <v>5706</v>
       </c>
       <c r="H40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="K40">
-        <v>99.96</v>
+        <v>99.91</v>
       </c>
       <c r="L40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2053,37 +2053,37 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>400411</v>
+        <v>35865</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>28067</v>
+        <v>6148</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>6142</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>28050</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0.02</v>
+        <v>99.9</v>
       </c>
       <c r="K41">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="L41">
-        <v>99.94</v>
+        <v>0.05</v>
       </c>
       <c r="M41">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2094,37 +2094,37 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>400412</v>
+        <v>35866</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>27865</v>
+        <v>6149</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>26894</v>
+        <v>6147</v>
       </c>
       <c r="I42">
-        <v>967</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L42">
-        <v>96.52</v>
+        <v>99.97</v>
       </c>
       <c r="M42">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2135,37 +2135,37 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>400413</v>
+        <v>35867</v>
       </c>
       <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>6190</v>
+      </c>
+      <c r="F43">
+        <v>6177</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
         <v>7</v>
       </c>
-      <c r="E43">
-        <v>27701</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>26737</v>
-      </c>
       <c r="I43">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>99.79</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L43">
-        <v>96.52</v>
+        <v>0.11</v>
       </c>
       <c r="M43">
-        <v>3.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2176,37 +2176,37 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>400414</v>
+        <v>35868</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>27449</v>
+        <v>6210</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>6198</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>27404</v>
+        <v>11</v>
       </c>
       <c r="I44">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.01</v>
+        <v>99.81</v>
       </c>
       <c r="K44">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L44">
-        <v>99.84</v>
+        <v>0.18</v>
       </c>
       <c r="M44">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2217,37 +2217,37 @@
         <v>14</v>
       </c>
       <c r="C45">
-        <v>400415</v>
+        <v>35869</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>27361</v>
+        <v>6156</v>
       </c>
       <c r="F45">
-        <v>27344</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>6133</v>
       </c>
       <c r="J45">
-        <v>99.94</v>
+        <v>0.03</v>
       </c>
       <c r="K45">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L45">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>99.63</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2258,37 +2258,37 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>400372</v>
+        <v>35826</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>29130</v>
+        <v>21095</v>
       </c>
       <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46">
         <v>8</v>
       </c>
-      <c r="G46">
-        <v>29112</v>
-      </c>
-      <c r="H46">
-        <v>9</v>
-      </c>
       <c r="I46">
-        <v>1</v>
+        <v>21073</v>
       </c>
       <c r="J46">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K46">
-        <v>99.94</v>
+        <v>0.06</v>
       </c>
       <c r="L46">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2299,22 +2299,22 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>400373</v>
+        <v>35827</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47">
-        <v>29206</v>
+        <v>21096</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>29191</v>
+        <v>21089</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2323,10 +2323,10 @@
         <v>0.02</v>
       </c>
       <c r="K47">
-        <v>99.95</v>
+        <v>99.97</v>
       </c>
       <c r="L47">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2340,37 +2340,37 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>400374</v>
+        <v>35828</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>29293</v>
+        <v>21110</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>29259</v>
+        <v>21101</v>
       </c>
       <c r="I48">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K48">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="L48">
-        <v>99.88</v>
+        <v>99.96</v>
       </c>
       <c r="M48">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2381,37 +2381,37 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>400375</v>
+        <v>35829</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>29109</v>
+        <v>21104</v>
       </c>
       <c r="F49">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>28953</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>42</v>
+        <v>21098</v>
       </c>
       <c r="I49">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>99.46</v>
+        <v>0.02</v>
       </c>
       <c r="L49">
-        <v>0.14</v>
+        <v>99.97</v>
       </c>
       <c r="M49">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2422,37 +2422,37 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>400376</v>
+        <v>35830</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>29012</v>
+        <v>21377</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>21332</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I50">
-        <v>28995</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>99.79</v>
       </c>
       <c r="K50">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="M50">
-        <v>99.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2463,37 +2463,37 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>400377</v>
+        <v>35831</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>28923</v>
+        <v>21384</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>21368</v>
       </c>
       <c r="G51">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I51">
-        <v>28879</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="K51">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="L51">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="M51">
-        <v>99.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2504,37 +2504,37 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>400378</v>
+        <v>35832</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52">
-        <v>28749</v>
+        <v>21383</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>28714</v>
+        <v>21344</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="L52">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M52">
-        <v>99.88</v>
+        <v>99.82</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2545,37 +2545,37 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>400379</v>
+        <v>35833</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53">
-        <v>28444</v>
+        <v>21340</v>
       </c>
       <c r="F53">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="G53">
-        <v>28252</v>
+        <v>21330</v>
       </c>
       <c r="H53">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.44</v>
+        <v>0.03</v>
       </c>
       <c r="K53">
-        <v>99.32</v>
+        <v>99.95</v>
       </c>
       <c r="L53">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="M53">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2586,37 +2586,37 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>400380</v>
+        <v>35834</v>
       </c>
       <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>21280</v>
+      </c>
+      <c r="F54">
         <v>8</v>
       </c>
-      <c r="E54">
-        <v>29310</v>
-      </c>
-      <c r="F54">
+      <c r="G54">
+        <v>21266</v>
+      </c>
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="G54">
-        <v>11</v>
-      </c>
-      <c r="H54">
-        <v>8</v>
-      </c>
       <c r="I54">
-        <v>29288</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="K54">
-        <v>0.04</v>
+        <v>99.93</v>
       </c>
       <c r="L54">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M54">
-        <v>99.92</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2627,37 +2627,37 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>400381</v>
+        <v>35835</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>29228</v>
+        <v>21184</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55">
-        <v>59</v>
+        <v>21175</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>29157</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>0.01</v>
       </c>
       <c r="K55">
-        <v>0.2</v>
+        <v>99.96</v>
       </c>
       <c r="L55">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M55">
-        <v>99.76</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2668,37 +2668,37 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>400382</v>
+        <v>35836</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>28708</v>
+        <v>21465</v>
       </c>
       <c r="F56">
-        <v>68</v>
+        <v>21396</v>
       </c>
       <c r="G56">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H56">
-        <v>3027</v>
+        <v>62</v>
       </c>
       <c r="I56">
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.24</v>
+        <v>99.68</v>
       </c>
       <c r="K56">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L56">
-        <v>10.54</v>
+        <v>0.29</v>
       </c>
       <c r="M56">
-        <v>89.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2709,37 +2709,37 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>400383</v>
+        <v>35837</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>28432</v>
+        <v>21480</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>21466</v>
       </c>
       <c r="G57">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>28331</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="K57">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="L57">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M57">
-        <v>99.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2750,34 +2750,34 @@
         <v>14</v>
       </c>
       <c r="C58">
-        <v>400384</v>
+        <v>35838</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58">
-        <v>28391</v>
+        <v>21493</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G58">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="H58">
-        <v>28293</v>
+        <v>21428</v>
       </c>
       <c r="I58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="K58">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="L58">
-        <v>99.65</v>
+        <v>99.7</v>
       </c>
       <c r="M58">
         <v>0.08</v>
@@ -2791,37 +2791,37 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>400385</v>
+        <v>35839</v>
       </c>
       <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>21319</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>91</v>
+      </c>
+      <c r="H59">
         <v>6</v>
       </c>
-      <c r="E59">
-        <v>27190</v>
-      </c>
-      <c r="F59">
-        <v>25</v>
-      </c>
-      <c r="G59">
-        <v>24137</v>
-      </c>
-      <c r="H59">
-        <v>3018</v>
-      </c>
       <c r="I59">
-        <v>10</v>
+        <v>21220</v>
       </c>
       <c r="J59">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="K59">
-        <v>88.77</v>
+        <v>0.43</v>
       </c>
       <c r="L59">
-        <v>11.1</v>
+        <v>0.03</v>
       </c>
       <c r="M59">
-        <v>0.04</v>
+        <v>99.54</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2832,37 +2832,37 @@
         <v>14</v>
       </c>
       <c r="C60">
-        <v>400386</v>
+        <v>35840</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
       <c r="E60">
-        <v>27340</v>
+        <v>21258</v>
       </c>
       <c r="F60">
-        <v>27274</v>
+        <v>21168</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I60">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J60">
-        <v>99.76</v>
+        <v>99.58</v>
       </c>
       <c r="K60">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="L60">
+        <v>0.32</v>
+      </c>
+      <c r="M60">
         <v>0.04</v>
-      </c>
-      <c r="M60">
-        <v>0.09</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2873,37 +2873,37 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>400387</v>
+        <v>35841</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>27800</v>
+        <v>21313</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>21308</v>
       </c>
       <c r="H61">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>27702</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>0.18</v>
+        <v>99.98</v>
       </c>
       <c r="L61">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>99.65</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2914,37 +2914,37 @@
         <v>14</v>
       </c>
       <c r="C62">
-        <v>400388</v>
+        <v>35842</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62">
-        <v>28844</v>
+        <v>17686</v>
       </c>
       <c r="F62">
-        <v>2922</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>25769</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>107</v>
+        <v>17685</v>
       </c>
       <c r="I62">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>10.13</v>
+        <v>0.01</v>
       </c>
       <c r="K62">
-        <v>89.34</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0.37</v>
+        <v>99.99</v>
       </c>
       <c r="M62">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2955,37 +2955,37 @@
         <v>14</v>
       </c>
       <c r="C63">
-        <v>400389</v>
+        <v>35843</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E63">
-        <v>26894</v>
+        <v>17649</v>
       </c>
       <c r="F63">
-        <v>26749</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>36</v>
+        <v>17643</v>
       </c>
       <c r="I63">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>99.46</v>
+        <v>0.02</v>
       </c>
       <c r="K63">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="L63">
-        <v>0.13</v>
+        <v>99.97</v>
       </c>
       <c r="M63">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2996,37 +2996,37 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>400390</v>
+        <v>35844</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>26763</v>
+        <v>17567</v>
       </c>
       <c r="F64">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="G64">
-        <v>26610</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>14</v>
+        <v>17552</v>
       </c>
       <c r="I64">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="K64">
-        <v>99.43</v>
+        <v>0.02</v>
       </c>
       <c r="L64">
-        <v>0.05</v>
+        <v>99.91</v>
       </c>
       <c r="M64">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3037,37 +3037,37 @@
         <v>14</v>
       </c>
       <c r="C65">
-        <v>400391</v>
+        <v>35845</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>26739</v>
+        <v>17178</v>
       </c>
       <c r="F65">
-        <v>2909</v>
+        <v>17146</v>
       </c>
       <c r="G65">
-        <v>23811</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>10.88</v>
+        <v>99.81</v>
       </c>
       <c r="K65">
-        <v>89.05</v>
+        <v>0.02</v>
       </c>
       <c r="L65">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="M65">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3078,37 +3078,37 @@
         <v>14</v>
       </c>
       <c r="C66">
-        <v>400392</v>
+        <v>35846</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>27862</v>
+        <v>16954</v>
       </c>
       <c r="F66">
+        <v>16910</v>
+      </c>
+      <c r="G66">
+        <v>11</v>
+      </c>
+      <c r="H66">
         <v>32</v>
       </c>
-      <c r="G66">
-        <v>27804</v>
-      </c>
-      <c r="H66">
-        <v>16</v>
-      </c>
       <c r="I66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0.11</v>
+        <v>99.74</v>
       </c>
       <c r="K66">
-        <v>99.79</v>
+        <v>0.06</v>
       </c>
       <c r="L66">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="M66">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3119,37 +3119,37 @@
         <v>14</v>
       </c>
       <c r="C67">
-        <v>400393</v>
+        <v>35847</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>28032</v>
+        <v>16701</v>
       </c>
       <c r="F67">
-        <v>27997</v>
+        <v>7</v>
       </c>
       <c r="G67">
-        <v>19</v>
+        <v>16681</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J67">
+        <v>0.04</v>
+      </c>
+      <c r="K67">
         <v>99.88</v>
       </c>
-      <c r="K67">
-        <v>0.07</v>
-      </c>
       <c r="L67">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M67">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3160,37 +3160,37 @@
         <v>14</v>
       </c>
       <c r="C68">
-        <v>400394</v>
+        <v>35848</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>28138</v>
+        <v>16609</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>16559</v>
       </c>
       <c r="G68">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H68">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I68">
-        <v>28101</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>0.03</v>
+        <v>99.7</v>
       </c>
       <c r="K68">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="L68">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="M68">
-        <v>99.87</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3201,37 +3201,37 @@
         <v>14</v>
       </c>
       <c r="C69">
-        <v>400395</v>
+        <v>35849</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69">
-        <v>27698</v>
+        <v>16176</v>
       </c>
       <c r="F69">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G69">
-        <v>21</v>
+        <v>16115</v>
       </c>
       <c r="H69">
-        <v>27647</v>
+        <v>10</v>
       </c>
       <c r="I69">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="K69">
-        <v>0.08</v>
+        <v>99.62</v>
       </c>
       <c r="L69">
-        <v>99.82</v>
+        <v>0.06</v>
       </c>
       <c r="M69">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3242,37 +3242,37 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>400396</v>
+        <v>35850</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>27878</v>
+        <v>15522</v>
       </c>
       <c r="F70">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G70">
-        <v>12</v>
+        <v>15477</v>
       </c>
       <c r="H70">
-        <v>27841</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J70">
+        <v>0.23</v>
+      </c>
+      <c r="K70">
+        <v>99.71</v>
+      </c>
+      <c r="L70">
+        <v>0.01</v>
+      </c>
+      <c r="M70">
         <v>0.05</v>
-      </c>
-      <c r="K70">
-        <v>0.04</v>
-      </c>
-      <c r="L70">
-        <v>99.87</v>
-      </c>
-      <c r="M70">
-        <v>0.04</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3283,37 +3283,37 @@
         <v>14</v>
       </c>
       <c r="C71">
-        <v>400397</v>
+        <v>35851</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>27949</v>
+        <v>15345</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>15316</v>
       </c>
       <c r="G71">
+        <v>19</v>
+      </c>
+      <c r="H71">
         <v>10</v>
       </c>
-      <c r="H71">
-        <v>27906</v>
-      </c>
       <c r="I71">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0.02</v>
+        <v>99.81</v>
       </c>
       <c r="K71">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="L71">
-        <v>99.85</v>
+        <v>0.07</v>
       </c>
       <c r="M71">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3324,37 +3324,37 @@
         <v>14</v>
       </c>
       <c r="C72">
-        <v>400398</v>
+        <v>35852</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72">
-        <v>28034</v>
+        <v>18864</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H72">
-        <v>27992</v>
+        <v>18827</v>
       </c>
       <c r="I72">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="K72">
-        <v>0.03</v>
+        <v>0.07</v>
       </c>
       <c r="L72">
-        <v>99.85</v>
+        <v>99.8</v>
       </c>
       <c r="M72">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3365,37 +3365,37 @@
         <v>14</v>
       </c>
       <c r="C73">
-        <v>400399</v>
+        <v>35853</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73">
-        <v>28044</v>
+        <v>18538</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H73">
-        <v>28007</v>
+        <v>18486</v>
       </c>
       <c r="I73">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J73">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="K73">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="L73">
-        <v>99.87</v>
+        <v>99.72</v>
       </c>
       <c r="M73">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3406,37 +3406,37 @@
         <v>14</v>
       </c>
       <c r="C74">
-        <v>400400</v>
+        <v>35854</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E74">
-        <v>28000</v>
+        <v>18008</v>
       </c>
       <c r="F74">
-        <v>27967</v>
+        <v>28</v>
       </c>
       <c r="G74">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>17902</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>99.88</v>
+        <v>0.16</v>
       </c>
       <c r="K74">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="L74">
-        <v>0.04</v>
+        <v>99.41</v>
       </c>
       <c r="M74">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3447,37 +3447,37 @@
         <v>14</v>
       </c>
       <c r="C75">
-        <v>400401</v>
+        <v>35855</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
       <c r="E75">
-        <v>27972</v>
+        <v>15579</v>
       </c>
       <c r="F75">
-        <v>27959</v>
+        <v>15101</v>
       </c>
       <c r="G75">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="J75">
-        <v>99.95</v>
+        <v>96.93</v>
       </c>
       <c r="K75">
-        <v>0.03</v>
+        <v>0.96</v>
       </c>
       <c r="L75">
-        <v>0.01</v>
+        <v>1.77</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3488,37 +3488,37 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <v>400402</v>
+        <v>35856</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>27611</v>
+        <v>16295</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>16156</v>
       </c>
       <c r="G76">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="H76">
-        <v>27513</v>
+        <v>33</v>
       </c>
       <c r="I76">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="J76">
-        <v>0.01</v>
+        <v>99.15</v>
       </c>
       <c r="K76">
-        <v>0.1</v>
+        <v>0.61</v>
       </c>
       <c r="L76">
-        <v>99.65</v>
+        <v>0.2</v>
       </c>
       <c r="M76">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3529,37 +3529,37 @@
         <v>14</v>
       </c>
       <c r="C77">
-        <v>400403</v>
+        <v>35857</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>27691</v>
+        <v>16004</v>
       </c>
       <c r="F77">
-        <v>27685</v>
+        <v>119</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>15836</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J77">
-        <v>99.98</v>
+        <v>0.74</v>
       </c>
       <c r="K77">
-        <v>0.01</v>
+        <v>98.95</v>
       </c>
       <c r="L77">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3570,37 +3570,37 @@
         <v>14</v>
       </c>
       <c r="C78">
-        <v>400404</v>
+        <v>35858</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>27631</v>
+        <v>16564</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>16447</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H78">
-        <v>27611</v>
+        <v>23</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.01</v>
+        <v>99.29</v>
       </c>
       <c r="K78">
-        <v>0.02</v>
+        <v>0.57</v>
       </c>
       <c r="L78">
-        <v>99.93</v>
+        <v>0.14</v>
       </c>
       <c r="M78">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3611,37 +3611,37 @@
         <v>14</v>
       </c>
       <c r="C79">
-        <v>400405</v>
+        <v>35859</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>27645</v>
+        <v>15706</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>15658</v>
       </c>
       <c r="H79">
-        <v>27607</v>
+        <v>14</v>
       </c>
       <c r="I79">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="K79">
-        <v>0.02</v>
+        <v>99.69</v>
       </c>
       <c r="L79">
-        <v>99.86</v>
+        <v>0.09</v>
       </c>
       <c r="M79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3652,37 +3652,37 @@
         <v>14</v>
       </c>
       <c r="C80">
-        <v>400406</v>
+        <v>35860</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
       </c>
       <c r="E80">
-        <v>27666</v>
+        <v>15683</v>
       </c>
       <c r="F80">
-        <v>27607</v>
+        <v>15474</v>
       </c>
       <c r="G80">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>99.79</v>
+        <v>98.67</v>
       </c>
       <c r="K80">
-        <v>0.15</v>
+        <v>1.22</v>
       </c>
       <c r="L80">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="M80">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3693,37 +3693,37 @@
         <v>14</v>
       </c>
       <c r="C81">
-        <v>400407</v>
+        <v>35861</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81">
-        <v>27647</v>
+        <v>15434</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>15403</v>
       </c>
       <c r="G81">
-        <v>27621</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0.01</v>
+        <v>99.8</v>
       </c>
       <c r="K81">
-        <v>99.91</v>
+        <v>0.05</v>
       </c>
       <c r="L81">
-        <v>0.07</v>
+        <v>0.15</v>
       </c>
       <c r="M81">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3734,37 +3734,37 @@
         <v>14</v>
       </c>
       <c r="C82">
-        <v>400408</v>
+        <v>35862</v>
       </c>
       <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>14873</v>
+      </c>
+      <c r="F82">
         <v>7</v>
       </c>
-      <c r="E82">
-        <v>28014</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
       <c r="G82">
-        <v>12</v>
+        <v>14686</v>
       </c>
       <c r="H82">
-        <v>27983</v>
+        <v>173</v>
       </c>
       <c r="I82">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K82">
-        <v>0.04</v>
+        <v>98.74</v>
       </c>
       <c r="L82">
-        <v>99.89</v>
+        <v>1.16</v>
       </c>
       <c r="M82">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3775,34 +3775,34 @@
         <v>14</v>
       </c>
       <c r="C83">
-        <v>400409</v>
+        <v>35863</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83">
-        <v>28381</v>
+        <v>15427</v>
       </c>
       <c r="F83">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>28349</v>
+        <v>15415</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="K83">
-        <v>99.89</v>
+        <v>99.92</v>
       </c>
       <c r="L83">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M83">
         <v>0.01</v>
@@ -3816,37 +3816,37 @@
         <v>14</v>
       </c>
       <c r="C84">
-        <v>400410</v>
+        <v>35864</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
       <c r="E84">
-        <v>28353</v>
+        <v>14881</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G84">
-        <v>28339</v>
+        <v>14848</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="K84">
-        <v>99.95</v>
+        <v>99.78</v>
       </c>
       <c r="L84">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3857,37 +3857,37 @@
         <v>14</v>
       </c>
       <c r="C85">
-        <v>400411</v>
+        <v>35865</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>28322</v>
+        <v>17783</v>
       </c>
       <c r="F85">
+        <v>17718</v>
+      </c>
+      <c r="G85">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <v>49</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>28305</v>
-      </c>
-      <c r="I85">
-        <v>10</v>
-      </c>
       <c r="J85">
-        <v>0.01</v>
+        <v>99.63</v>
       </c>
       <c r="K85">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="L85">
-        <v>99.94</v>
+        <v>0.28</v>
       </c>
       <c r="M85">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3898,37 +3898,37 @@
         <v>14</v>
       </c>
       <c r="C86">
-        <v>400412</v>
+        <v>35866</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86">
-        <v>28068</v>
+        <v>18385</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H86">
-        <v>25348</v>
+        <v>18356</v>
       </c>
       <c r="I86">
-        <v>2711</v>
+        <v>5</v>
       </c>
       <c r="J86">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="K86">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="L86">
-        <v>90.31</v>
+        <v>99.84</v>
       </c>
       <c r="M86">
-        <v>9.66</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3939,37 +3939,37 @@
         <v>14</v>
       </c>
       <c r="C87">
-        <v>400413</v>
+        <v>35867</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>27811</v>
+        <v>18122</v>
       </c>
       <c r="F87">
+        <v>17906</v>
+      </c>
+      <c r="G87">
+        <v>22</v>
+      </c>
+      <c r="H87">
+        <v>193</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="G87">
-        <v>5</v>
-      </c>
-      <c r="H87">
-        <v>25097</v>
-      </c>
-      <c r="I87">
-        <v>2708</v>
-      </c>
       <c r="J87">
-        <v>0</v>
+        <v>98.81</v>
       </c>
       <c r="K87">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="L87">
-        <v>90.24</v>
+        <v>1.07</v>
       </c>
       <c r="M87">
-        <v>9.74</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3980,37 +3980,37 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>400414</v>
+        <v>35868</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>27810</v>
+        <v>18413</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>18330</v>
       </c>
       <c r="G88">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H88">
-        <v>27750</v>
+        <v>64</v>
       </c>
       <c r="I88">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0.01</v>
+        <v>99.55</v>
       </c>
       <c r="K88">
         <v>0.1</v>
       </c>
       <c r="L88">
-        <v>99.78</v>
+        <v>0.35</v>
       </c>
       <c r="M88">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4021,37 +4021,37 @@
         <v>14</v>
       </c>
       <c r="C89">
-        <v>400415</v>
+        <v>35869</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>27740</v>
+        <v>17964</v>
       </c>
       <c r="F89">
-        <v>27721</v>
+        <v>19</v>
       </c>
       <c r="G89">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>17823</v>
       </c>
       <c r="J89">
-        <v>99.93</v>
+        <v>0.11</v>
       </c>
       <c r="K89">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="L89">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>99.22</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4062,37 +4062,37 @@
         <v>14</v>
       </c>
       <c r="C90">
-        <v>400372</v>
+        <v>35826</v>
       </c>
       <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>33387</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
         <v>6</v>
       </c>
-      <c r="E90">
-        <v>37027</v>
-      </c>
-      <c r="F90">
-        <v>24</v>
-      </c>
-      <c r="G90">
-        <v>37002</v>
-      </c>
       <c r="H90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>33376</v>
       </c>
       <c r="J90">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>99.93</v>
+        <v>0.02</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4103,31 +4103,31 @@
         <v>14</v>
       </c>
       <c r="C91">
-        <v>400373</v>
+        <v>35827</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
       </c>
       <c r="E91">
-        <v>37162</v>
+        <v>33362</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>37143</v>
+        <v>33350</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J91">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K91">
-        <v>99.95</v>
+        <v>99.96</v>
       </c>
       <c r="L91">
         <v>0.01</v>
@@ -4144,37 +4144,37 @@
         <v>14</v>
       </c>
       <c r="C92">
-        <v>400374</v>
+        <v>35828</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92">
-        <v>37574</v>
+        <v>33390</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G92">
+        <v>11</v>
+      </c>
+      <c r="H92">
+        <v>33364</v>
+      </c>
+      <c r="I92">
         <v>6</v>
       </c>
-      <c r="H92">
-        <v>37550</v>
-      </c>
-      <c r="I92">
-        <v>15</v>
-      </c>
       <c r="J92">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K92">
+        <v>0.03</v>
+      </c>
+      <c r="L92">
+        <v>99.92</v>
+      </c>
+      <c r="M92">
         <v>0.02</v>
-      </c>
-      <c r="L92">
-        <v>99.94</v>
-      </c>
-      <c r="M92">
-        <v>0.04</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4185,37 +4185,37 @@
         <v>14</v>
       </c>
       <c r="C93">
-        <v>400375</v>
+        <v>35829</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93">
-        <v>37435</v>
+        <v>33402</v>
       </c>
       <c r="F93">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>37250</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>33</v>
+        <v>33385</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J93">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="K93">
-        <v>99.51</v>
+        <v>0.01</v>
       </c>
       <c r="L93">
-        <v>0.09</v>
+        <v>99.95</v>
       </c>
       <c r="M93">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4226,37 +4226,37 @@
         <v>14</v>
       </c>
       <c r="C94">
-        <v>400376</v>
+        <v>35830</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>37434</v>
+        <v>33899</v>
       </c>
       <c r="F94">
+        <v>33804</v>
+      </c>
+      <c r="G94">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>88</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="G94">
-        <v>5</v>
-      </c>
-      <c r="H94">
-        <v>20</v>
-      </c>
-      <c r="I94">
-        <v>37408</v>
-      </c>
       <c r="J94">
-        <v>0</v>
+        <v>99.72</v>
       </c>
       <c r="K94">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L94">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="M94">
-        <v>99.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4267,37 +4267,37 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>400377</v>
+        <v>35831</v>
       </c>
       <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>33960</v>
+      </c>
+      <c r="F95">
+        <v>33940</v>
+      </c>
+      <c r="G95">
+        <v>11</v>
+      </c>
+      <c r="H95">
         <v>8</v>
       </c>
-      <c r="E95">
-        <v>37355</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
-        <v>14</v>
-      </c>
-      <c r="H95">
-        <v>24</v>
-      </c>
       <c r="I95">
-        <v>37315</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>0.01</v>
+        <v>99.94</v>
       </c>
       <c r="K95">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L95">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="M95">
-        <v>99.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4308,37 +4308,37 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>400378</v>
+        <v>35832</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
       </c>
       <c r="E96">
-        <v>37324</v>
+        <v>33994</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H96">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I96">
-        <v>37288</v>
+        <v>33966</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="L96">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M96">
-        <v>99.9</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4349,37 +4349,37 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>400379</v>
+        <v>35833</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
       </c>
       <c r="E97">
-        <v>37176</v>
+        <v>33944</v>
       </c>
       <c r="F97">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G97">
-        <v>36889</v>
+        <v>33927</v>
       </c>
       <c r="H97">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
       <c r="K97">
-        <v>99.23</v>
+        <v>99.95</v>
       </c>
       <c r="L97">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="M97">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4390,37 +4390,37 @@
         <v>14</v>
       </c>
       <c r="C98">
-        <v>400380</v>
+        <v>35834</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>37839</v>
+        <v>33893</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>33884</v>
       </c>
       <c r="H98">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>37816</v>
+        <v>3</v>
       </c>
       <c r="J98">
         <v>0.01</v>
       </c>
       <c r="K98">
-        <v>0.02</v>
+        <v>99.97</v>
       </c>
       <c r="L98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>99.94</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4431,37 +4431,37 @@
         <v>14</v>
       </c>
       <c r="C99">
-        <v>400381</v>
+        <v>35835</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E99">
-        <v>37993</v>
+        <v>33768</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G99">
+        <v>33755</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
         <v>3</v>
       </c>
-      <c r="H99">
-        <v>10</v>
-      </c>
-      <c r="I99">
-        <v>37980</v>
-      </c>
       <c r="J99">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K99">
-        <v>0.01</v>
+        <v>99.96</v>
       </c>
       <c r="L99">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M99">
-        <v>99.97</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4472,37 +4472,37 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>400382</v>
+        <v>35836</v>
       </c>
       <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>34420</v>
+      </c>
+      <c r="F100">
+        <v>34376</v>
+      </c>
+      <c r="G100">
         <v>8</v>
       </c>
-      <c r="E100">
-        <v>37940</v>
-      </c>
-      <c r="F100">
-        <v>2</v>
-      </c>
-      <c r="G100">
-        <v>27</v>
-      </c>
       <c r="H100">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I100">
-        <v>37901</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0.01</v>
+        <v>99.87</v>
       </c>
       <c r="K100">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="L100">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="M100">
-        <v>99.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4513,37 +4513,37 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>400383</v>
+        <v>35837</v>
       </c>
       <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>34451</v>
+      </c>
+      <c r="F101">
+        <v>34439</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101">
         <v>8</v>
       </c>
-      <c r="E101">
-        <v>37550</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>26</v>
-      </c>
-      <c r="H101">
-        <v>9</v>
-      </c>
       <c r="I101">
-        <v>37515</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>99.97</v>
       </c>
       <c r="K101">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="L101">
         <v>0.02</v>
       </c>
       <c r="M101">
-        <v>99.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4554,37 +4554,37 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>400384</v>
+        <v>35838</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102">
-        <v>37478</v>
+        <v>34431</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>37459</v>
+        <v>25258</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>9101</v>
       </c>
       <c r="J102">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="K102">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="L102">
-        <v>99.95</v>
+        <v>73.36</v>
       </c>
       <c r="M102">
-        <v>0.03</v>
+        <v>26.43</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4595,37 +4595,37 @@
         <v>14</v>
       </c>
       <c r="C103">
-        <v>400385</v>
+        <v>35839</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>37491</v>
+        <v>34229</v>
       </c>
       <c r="F103">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>37462</v>
+        <v>67</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>34153</v>
       </c>
       <c r="J103">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>99.92</v>
+        <v>0.2</v>
       </c>
       <c r="L103">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M103">
-        <v>0.01</v>
+        <v>99.78</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4636,37 +4636,37 @@
         <v>14</v>
       </c>
       <c r="C104">
-        <v>400386</v>
+        <v>35840</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
       </c>
       <c r="E104">
-        <v>37617</v>
+        <v>34163</v>
       </c>
       <c r="F104">
-        <v>37592</v>
+        <v>34091</v>
       </c>
       <c r="G104">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H104">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I104">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J104">
-        <v>99.93</v>
+        <v>99.79</v>
       </c>
       <c r="K104">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L104">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="M104">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4677,37 +4677,37 @@
         <v>14</v>
       </c>
       <c r="C105">
-        <v>400387</v>
+        <v>35841</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>37603</v>
+        <v>34340</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>34303</v>
       </c>
       <c r="H105">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I105">
-        <v>37590</v>
+        <v>3</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K105">
-        <v>0.01</v>
+        <v>99.89</v>
       </c>
       <c r="L105">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M105">
-        <v>99.97</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4718,34 +4718,34 @@
         <v>14</v>
       </c>
       <c r="C106">
-        <v>400388</v>
+        <v>35842</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>37212</v>
+        <v>32287</v>
       </c>
       <c r="F106">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106">
-        <v>37184</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>9</v>
+        <v>32264</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J106">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K106">
-        <v>99.92</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>0.02</v>
+        <v>99.93</v>
       </c>
       <c r="M106">
         <v>0.01</v>
@@ -4759,37 +4759,37 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>400389</v>
+        <v>35843</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E107">
-        <v>37031</v>
+        <v>32351</v>
       </c>
       <c r="F107">
-        <v>37014</v>
+        <v>2</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>32290</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="J107">
-        <v>99.95</v>
+        <v>0.01</v>
       </c>
       <c r="K107">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L107">
-        <v>0.02</v>
+        <v>99.81</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4800,37 +4800,37 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>400390</v>
+        <v>35844</v>
       </c>
       <c r="D108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>36658</v>
+        <v>32419</v>
       </c>
       <c r="F108">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G108">
-        <v>36634</v>
+        <v>4</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>32399</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J108">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K108">
-        <v>99.93</v>
+        <v>0.01</v>
       </c>
       <c r="L108">
-        <v>0.01</v>
+        <v>99.94</v>
       </c>
       <c r="M108">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4841,34 +4841,34 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <v>400391</v>
+        <v>35845</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>36646</v>
+        <v>32054</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>32027</v>
       </c>
       <c r="G109">
-        <v>36626</v>
+        <v>7</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J109">
-        <v>0.03</v>
+        <v>99.92</v>
       </c>
       <c r="K109">
-        <v>99.95</v>
+        <v>0.02</v>
       </c>
       <c r="L109">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M109">
         <v>0.01</v>
@@ -4882,34 +4882,34 @@
         <v>14</v>
       </c>
       <c r="C110">
-        <v>400392</v>
+        <v>35846</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>36606</v>
+        <v>31575</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>31389</v>
       </c>
       <c r="G110">
-        <v>36584</v>
+        <v>82</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="I110">
         <v>6</v>
       </c>
       <c r="J110">
-        <v>0.04</v>
+        <v>99.41</v>
       </c>
       <c r="K110">
-        <v>99.94</v>
+        <v>0.26</v>
       </c>
       <c r="L110">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="M110">
         <v>0.02</v>
@@ -4923,37 +4923,37 @@
         <v>14</v>
       </c>
       <c r="C111">
-        <v>400393</v>
+        <v>35847</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>36753</v>
+        <v>30941</v>
       </c>
       <c r="F111">
-        <v>36746</v>
+        <v>28</v>
       </c>
       <c r="G111">
+        <v>30732</v>
+      </c>
+      <c r="H111">
+        <v>178</v>
+      </c>
+      <c r="I111">
         <v>3</v>
       </c>
-      <c r="H111">
-        <v>3</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111">
-        <v>99.98</v>
+        <v>0.09</v>
       </c>
       <c r="K111">
-        <v>0.01</v>
+        <v>99.32</v>
       </c>
       <c r="L111">
-        <v>0.01</v>
+        <v>0.58</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4964,37 +4964,37 @@
         <v>14</v>
       </c>
       <c r="C112">
-        <v>400394</v>
+        <v>35848</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>36705</v>
+        <v>30659</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>30507</v>
       </c>
       <c r="G112">
         <v>8</v>
       </c>
       <c r="H112">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="I112">
-        <v>36682</v>
+        <v>22</v>
       </c>
       <c r="J112">
-        <v>0.01</v>
+        <v>99.5</v>
       </c>
       <c r="K112">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L112">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="M112">
-        <v>99.94</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5005,37 +5005,37 @@
         <v>14</v>
       </c>
       <c r="C113">
-        <v>400395</v>
+        <v>35849</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>36567</v>
+        <v>30238</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G113">
-        <v>8</v>
+        <v>29988</v>
       </c>
       <c r="H113">
-        <v>36539</v>
+        <v>103</v>
       </c>
       <c r="I113">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K113">
-        <v>0.02</v>
+        <v>99.17</v>
       </c>
       <c r="L113">
-        <v>99.92</v>
+        <v>0.34</v>
       </c>
       <c r="M113">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5046,37 +5046,37 @@
         <v>14</v>
       </c>
       <c r="C114">
-        <v>400396</v>
+        <v>35850</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>36657</v>
+        <v>30019</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>29988</v>
       </c>
       <c r="H114">
-        <v>36634</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J114">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="L114">
-        <v>99.94</v>
+        <v>0.02</v>
       </c>
       <c r="M114">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5087,37 +5087,37 @@
         <v>14</v>
       </c>
       <c r="C115">
-        <v>400397</v>
+        <v>35851</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>36656</v>
+        <v>30293</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>30039</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="H115">
-        <v>36627</v>
+        <v>181</v>
       </c>
       <c r="I115">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>0.01</v>
+        <v>99.16</v>
       </c>
       <c r="K115">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="L115">
-        <v>99.92</v>
+        <v>0.6</v>
       </c>
       <c r="M115">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5128,37 +5128,37 @@
         <v>14</v>
       </c>
       <c r="C116">
-        <v>400398</v>
+        <v>35852</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116">
-        <v>36687</v>
+        <v>32279</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H116">
-        <v>36666</v>
+        <v>32151</v>
       </c>
       <c r="I116">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J116">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L116">
-        <v>99.94</v>
+        <v>99.6</v>
       </c>
       <c r="M116">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5169,37 +5169,37 @@
         <v>14</v>
       </c>
       <c r="C117">
-        <v>400399</v>
+        <v>35853</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117">
-        <v>36694</v>
+        <v>32171</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>36652</v>
+        <v>32057</v>
       </c>
       <c r="I117">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J117">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="K117">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="L117">
-        <v>99.89</v>
+        <v>99.65</v>
       </c>
       <c r="M117">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5210,37 +5210,37 @@
         <v>14</v>
       </c>
       <c r="C118">
-        <v>400400</v>
+        <v>35854</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>36659</v>
+        <v>30136</v>
       </c>
       <c r="F118">
-        <v>36639</v>
+        <v>199</v>
       </c>
       <c r="G118">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>29835</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J118">
-        <v>99.95</v>
+        <v>0.66</v>
       </c>
       <c r="K118">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="L118">
-        <v>0.03</v>
+        <v>99</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5251,37 +5251,37 @@
         <v>14</v>
       </c>
       <c r="C119">
-        <v>400401</v>
+        <v>35855</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
       </c>
       <c r="E119">
-        <v>36650</v>
+        <v>26061</v>
       </c>
       <c r="F119">
-        <v>36639</v>
+        <v>25839</v>
       </c>
       <c r="G119">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J119">
-        <v>99.97</v>
+        <v>99.15</v>
       </c>
       <c r="K119">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5292,37 +5292,37 @@
         <v>14</v>
       </c>
       <c r="C120">
-        <v>400402</v>
+        <v>35856</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>36238</v>
+        <v>29586</v>
       </c>
       <c r="F120">
-        <v>11</v>
+        <v>29290</v>
       </c>
       <c r="G120">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H120">
-        <v>36119</v>
+        <v>53</v>
       </c>
       <c r="I120">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="J120">
-        <v>0.03</v>
+        <v>99</v>
       </c>
       <c r="K120">
-        <v>0.09</v>
+        <v>0.66</v>
       </c>
       <c r="L120">
-        <v>99.67</v>
+        <v>0.18</v>
       </c>
       <c r="M120">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5333,37 +5333,37 @@
         <v>14</v>
       </c>
       <c r="C121">
-        <v>400403</v>
+        <v>35857</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>36224</v>
+        <v>28915</v>
       </c>
       <c r="F121">
-        <v>36214</v>
+        <v>283</v>
       </c>
       <c r="G121">
-        <v>8</v>
+        <v>28436</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J121">
-        <v>99.97</v>
+        <v>0.98</v>
       </c>
       <c r="K121">
-        <v>0.02</v>
+        <v>98.34</v>
       </c>
       <c r="L121">
-        <v>0.01</v>
+        <v>0.55</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5374,37 +5374,37 @@
         <v>14</v>
       </c>
       <c r="C122">
-        <v>400404</v>
+        <v>35858</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>36176</v>
+        <v>29350</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>28884</v>
       </c>
       <c r="G122">
-        <v>7</v>
+        <v>438</v>
       </c>
       <c r="H122">
-        <v>36142</v>
+        <v>20</v>
       </c>
       <c r="I122">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J122">
-        <v>0.01</v>
+        <v>98.41</v>
       </c>
       <c r="K122">
-        <v>0.02</v>
+        <v>1.49</v>
       </c>
       <c r="L122">
-        <v>99.91</v>
+        <v>0.07</v>
       </c>
       <c r="M122">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5415,37 +5415,37 @@
         <v>14</v>
       </c>
       <c r="C123">
-        <v>400405</v>
+        <v>35859</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E123">
-        <v>36150</v>
+        <v>27328</v>
       </c>
       <c r="F123">
+        <v>10102</v>
+      </c>
+      <c r="G123">
+        <v>17121</v>
+      </c>
+      <c r="H123">
+        <v>102</v>
+      </c>
+      <c r="I123">
         <v>3</v>
       </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>36119</v>
-      </c>
-      <c r="I123">
-        <v>27</v>
-      </c>
       <c r="J123">
-        <v>0.01</v>
+        <v>36.97</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>62.65</v>
       </c>
       <c r="L123">
-        <v>99.91</v>
+        <v>0.37</v>
       </c>
       <c r="M123">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5456,37 +5456,37 @@
         <v>14</v>
       </c>
       <c r="C124">
-        <v>400406</v>
+        <v>35860</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
       </c>
       <c r="E124">
-        <v>36159</v>
+        <v>27377</v>
       </c>
       <c r="F124">
-        <v>36129</v>
+        <v>27219</v>
       </c>
       <c r="G124">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H124">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J124">
-        <v>99.92</v>
+        <v>99.42</v>
       </c>
       <c r="K124">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="L124">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5497,37 +5497,37 @@
         <v>14</v>
       </c>
       <c r="C125">
-        <v>400407</v>
+        <v>35861</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>35895</v>
+        <v>26843</v>
       </c>
       <c r="F125">
-        <v>9</v>
+        <v>26714</v>
       </c>
       <c r="G125">
-        <v>35877</v>
+        <v>15</v>
       </c>
       <c r="H125">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="J125">
-        <v>0.03</v>
+        <v>99.52</v>
       </c>
       <c r="K125">
-        <v>99.95</v>
+        <v>0.06</v>
       </c>
       <c r="L125">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="M125">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5538,37 +5538,37 @@
         <v>14</v>
       </c>
       <c r="C126">
-        <v>400408</v>
+        <v>35862</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126">
-        <v>35943</v>
+        <v>26009</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>15673</v>
       </c>
       <c r="H126">
-        <v>35932</v>
+        <v>51</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>10257</v>
       </c>
       <c r="J126">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="K126">
-        <v>0.01</v>
+        <v>60.26</v>
       </c>
       <c r="L126">
-        <v>99.97</v>
+        <v>0.2</v>
       </c>
       <c r="M126">
-        <v>0.01</v>
+        <v>39.44</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5579,37 +5579,37 @@
         <v>14</v>
       </c>
       <c r="C127">
-        <v>400409</v>
+        <v>35863</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
       </c>
       <c r="E127">
-        <v>34599</v>
+        <v>26695</v>
       </c>
       <c r="F127">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G127">
-        <v>34569</v>
+        <v>26664</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="K127">
-        <v>99.91</v>
+        <v>99.88</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5620,34 +5620,34 @@
         <v>14</v>
       </c>
       <c r="C128">
-        <v>400410</v>
+        <v>35864</v>
       </c>
       <c r="D128" t="s">
         <v>6</v>
       </c>
       <c r="E128">
-        <v>34524</v>
+        <v>26372</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G128">
-        <v>34511</v>
+        <v>26301</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="K128">
-        <v>99.96</v>
+        <v>99.73</v>
       </c>
       <c r="L128">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M128">
         <v>0.01</v>
@@ -5661,37 +5661,37 @@
         <v>14</v>
       </c>
       <c r="C129">
-        <v>400411</v>
+        <v>35865</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>34455</v>
+        <v>27632</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>17321</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>10226</v>
       </c>
       <c r="H129">
-        <v>34442</v>
+        <v>85</v>
       </c>
       <c r="I129">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>62.68</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>37.01</v>
       </c>
       <c r="L129">
-        <v>99.96</v>
+        <v>0.31</v>
       </c>
       <c r="M129">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5702,37 +5702,37 @@
         <v>14</v>
       </c>
       <c r="C130">
-        <v>400412</v>
+        <v>35866</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130">
-        <v>34197</v>
+        <v>32748</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H130">
-        <v>34172</v>
+        <v>32664</v>
       </c>
       <c r="I130">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J130">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="K130">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L130">
-        <v>99.93</v>
+        <v>99.74</v>
       </c>
       <c r="M130">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5743,37 +5743,37 @@
         <v>14</v>
       </c>
       <c r="C131">
-        <v>400413</v>
+        <v>35867</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>34182</v>
+        <v>31843</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>31502</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H131">
-        <v>34140</v>
+        <v>288</v>
       </c>
       <c r="I131">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J131">
-        <v>0.01</v>
+        <v>98.93</v>
       </c>
       <c r="K131">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L131">
-        <v>99.88</v>
+        <v>0.9</v>
       </c>
       <c r="M131">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5784,37 +5784,37 @@
         <v>14</v>
       </c>
       <c r="C132">
-        <v>400414</v>
+        <v>35868</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>33619</v>
+        <v>32439</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>32152</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H132">
-        <v>33580</v>
+        <v>59</v>
       </c>
       <c r="I132">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="J132">
-        <v>0.01</v>
+        <v>99.12</v>
       </c>
       <c r="K132">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L132">
-        <v>99.88</v>
+        <v>0.18</v>
       </c>
       <c r="M132">
-        <v>0.1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5825,37 +5825,37 @@
         <v>14</v>
       </c>
       <c r="C133">
-        <v>400415</v>
+        <v>35869</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>33498</v>
+        <v>31529</v>
       </c>
       <c r="F133">
-        <v>33470</v>
+        <v>37</v>
       </c>
       <c r="G133">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H133">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>31394</v>
       </c>
       <c r="J133">
-        <v>99.92</v>
+        <v>0.12</v>
       </c>
       <c r="K133">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="L133">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>99.57</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5866,37 +5866,37 @@
         <v>14</v>
       </c>
       <c r="C134">
-        <v>400372</v>
+        <v>35826</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>85</v>
+        <v>33379</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>33354</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>100</v>
+        <v>0.07</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>99.93</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5907,34 +5907,34 @@
         <v>14</v>
       </c>
       <c r="C135">
-        <v>400373</v>
+        <v>35827</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
       </c>
       <c r="E135">
-        <v>85</v>
+        <v>33355</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G135">
-        <v>85</v>
+        <v>33345</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K135">
-        <v>100</v>
+        <v>99.97</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -5948,37 +5948,37 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <v>400374</v>
+        <v>35828</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136">
-        <v>83</v>
+        <v>33495</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H136">
-        <v>83</v>
+        <v>33474</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L136">
-        <v>100</v>
+        <v>99.94</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5989,37 +5989,37 @@
         <v>14</v>
       </c>
       <c r="C137">
-        <v>400375</v>
+        <v>35829</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>81</v>
+        <v>33548</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G137">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>33534</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137">
-        <v>1.23</v>
+        <v>0.01</v>
       </c>
       <c r="K137">
-        <v>98.77</v>
+        <v>0.02</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>99.96</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6030,37 +6030,37 @@
         <v>14</v>
       </c>
       <c r="C138">
-        <v>400376</v>
+        <v>35830</v>
       </c>
       <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>34161</v>
+      </c>
+      <c r="F138">
+        <v>34111</v>
+      </c>
+      <c r="G138">
         <v>8</v>
       </c>
-      <c r="E138">
-        <v>81</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
       <c r="H138">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I138">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>99.85</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M138">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6071,37 +6071,37 @@
         <v>14</v>
       </c>
       <c r="C139">
-        <v>400377</v>
+        <v>35831</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>81</v>
+        <v>34255</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>34227</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I139">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>99.92</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M139">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6112,37 +6112,37 @@
         <v>14</v>
       </c>
       <c r="C140">
-        <v>400378</v>
+        <v>35832</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
       </c>
       <c r="E140">
-        <v>79</v>
+        <v>34309</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I140">
-        <v>79</v>
+        <v>34255</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M140">
-        <v>100</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6153,37 +6153,37 @@
         <v>14</v>
       </c>
       <c r="C141">
-        <v>400379</v>
+        <v>35833</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
       </c>
       <c r="E141">
-        <v>78</v>
+        <v>34300</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G141">
-        <v>78</v>
+        <v>34288</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K141">
-        <v>100</v>
+        <v>99.97</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6194,37 +6194,37 @@
         <v>14</v>
       </c>
       <c r="C142">
-        <v>400380</v>
+        <v>35834</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>80</v>
+        <v>34319</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>34311</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I142">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>99.98</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M142">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6235,37 +6235,37 @@
         <v>14</v>
       </c>
       <c r="C143">
-        <v>400381</v>
+        <v>35835</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>79</v>
+        <v>34327</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>34305</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="L143">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M143">
-        <v>100</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6276,37 +6276,37 @@
         <v>14</v>
       </c>
       <c r="C144">
-        <v>400382</v>
+        <v>35836</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>79</v>
+        <v>35267</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>35224</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I144">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>99.88</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L144">
-        <v>10.13</v>
+        <v>0.06</v>
       </c>
       <c r="M144">
-        <v>89.87</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6317,37 +6317,37 @@
         <v>14</v>
       </c>
       <c r="C145">
-        <v>400383</v>
+        <v>35837</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>77</v>
+        <v>35517</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>35488</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I145">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>99.92</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M145">
-        <v>100</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6358,37 +6358,37 @@
         <v>14</v>
       </c>
       <c r="C146">
-        <v>400384</v>
+        <v>35838</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
       <c r="E146">
-        <v>78</v>
+        <v>35672</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H146">
-        <v>78</v>
+        <v>30548</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>5028</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L146">
-        <v>100</v>
+        <v>85.64</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6399,37 +6399,37 @@
         <v>14</v>
       </c>
       <c r="C147">
-        <v>400385</v>
+        <v>35839</v>
       </c>
       <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147">
+        <v>35567</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>16</v>
+      </c>
+      <c r="H147">
         <v>6</v>
       </c>
-      <c r="E147">
-        <v>133</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>126</v>
-      </c>
-      <c r="H147">
-        <v>7</v>
-      </c>
       <c r="I147">
-        <v>0</v>
+        <v>35545</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>94.74</v>
+        <v>0.04</v>
       </c>
       <c r="L147">
-        <v>5.26</v>
+        <v>0.02</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6440,34 +6440,34 @@
         <v>14</v>
       </c>
       <c r="C148">
-        <v>400386</v>
+        <v>35840</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
       </c>
       <c r="E148">
-        <v>133</v>
+        <v>35630</v>
       </c>
       <c r="F148">
-        <v>133</v>
+        <v>35599</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>100</v>
+        <v>99.91</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -6481,37 +6481,37 @@
         <v>14</v>
       </c>
       <c r="C149">
-        <v>400387</v>
+        <v>35841</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>133</v>
+        <v>36023</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>36009</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I149">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>99.96</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M149">
-        <v>100</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6522,37 +6522,37 @@
         <v>14</v>
       </c>
       <c r="C150">
-        <v>400388</v>
+        <v>35842</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>133</v>
+        <v>35688</v>
       </c>
       <c r="F150">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G150">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>35681</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150">
-        <v>5.26</v>
+        <v>0.01</v>
       </c>
       <c r="K150">
-        <v>94.74</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>99.98</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6563,34 +6563,34 @@
         <v>14</v>
       </c>
       <c r="C151">
-        <v>400389</v>
+        <v>35843</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E151">
-        <v>133</v>
+        <v>35849</v>
       </c>
       <c r="F151">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>35841</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>99.98</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -6604,37 +6604,37 @@
         <v>14</v>
       </c>
       <c r="C152">
-        <v>400390</v>
+        <v>35844</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>133</v>
+        <v>35807</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G152">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>35789</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K152">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>99.95</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6645,34 +6645,34 @@
         <v>14</v>
       </c>
       <c r="C153">
-        <v>400391</v>
+        <v>35845</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>133</v>
+        <v>35516</v>
       </c>
       <c r="F153">
-        <v>7</v>
+        <v>35485</v>
       </c>
       <c r="G153">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>5.26</v>
+        <v>99.91</v>
       </c>
       <c r="K153">
-        <v>94.74</v>
+        <v>0.01</v>
       </c>
       <c r="L153">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -6686,34 +6686,34 @@
         <v>14</v>
       </c>
       <c r="C154">
-        <v>400392</v>
+        <v>35846</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>136</v>
+        <v>35517</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>35494</v>
       </c>
       <c r="G154">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="K154">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -6727,37 +6727,37 @@
         <v>14</v>
       </c>
       <c r="C155">
-        <v>400393</v>
+        <v>35847</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>136</v>
+        <v>35375</v>
       </c>
       <c r="F155">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>35350</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J155">
-        <v>100</v>
+        <v>0.04</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6768,37 +6768,37 @@
         <v>14</v>
       </c>
       <c r="C156">
-        <v>400394</v>
+        <v>35848</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>137</v>
+        <v>35323</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>35302</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I156">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M156">
-        <v>100</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6809,37 +6809,37 @@
         <v>14</v>
       </c>
       <c r="C157">
-        <v>400395</v>
+        <v>35849</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>136</v>
+        <v>35356</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>35330</v>
       </c>
       <c r="H157">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="L157">
-        <v>100</v>
+        <v>0.02</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6850,37 +6850,37 @@
         <v>14</v>
       </c>
       <c r="C158">
-        <v>400396</v>
+        <v>35850</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E158">
-        <v>136</v>
+        <v>35482</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>35451</v>
       </c>
       <c r="H158">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>99.91</v>
       </c>
       <c r="L158">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6891,34 +6891,34 @@
         <v>14</v>
       </c>
       <c r="C159">
-        <v>400397</v>
+        <v>35851</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>136</v>
+        <v>36241</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>36187</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>99.85</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L159">
-        <v>100</v>
+        <v>0.07</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -6932,37 +6932,37 @@
         <v>14</v>
       </c>
       <c r="C160">
-        <v>400398</v>
+        <v>35852</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
       </c>
       <c r="E160">
-        <v>136</v>
+        <v>36924</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H160">
-        <v>136</v>
+        <v>36859</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L160">
-        <v>100</v>
+        <v>99.82</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -6973,37 +6973,37 @@
         <v>14</v>
       </c>
       <c r="C161">
-        <v>400399</v>
+        <v>35853</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161">
-        <v>136</v>
+        <v>36872</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H161">
-        <v>136</v>
+        <v>36797</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L161">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7014,37 +7014,37 @@
         <v>14</v>
       </c>
       <c r="C162">
-        <v>400400</v>
+        <v>35854</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>136</v>
+        <v>36499</v>
       </c>
       <c r="F162">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>36427</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J162">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="M162">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7055,37 +7055,37 @@
         <v>14</v>
       </c>
       <c r="C163">
-        <v>400401</v>
+        <v>35855</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
       </c>
       <c r="E163">
-        <v>136</v>
+        <v>34488</v>
       </c>
       <c r="F163">
-        <v>136</v>
+        <v>34342</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J163">
-        <v>100</v>
+        <v>99.58</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="M163">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7096,37 +7096,37 @@
         <v>14</v>
       </c>
       <c r="C164">
-        <v>400402</v>
+        <v>35856</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E164">
-        <v>136</v>
+        <v>36158</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>36054</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>99.71</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L164">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="M164">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7137,37 +7137,37 @@
         <v>14</v>
       </c>
       <c r="C165">
-        <v>400403</v>
+        <v>35857</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>136</v>
+        <v>35793</v>
       </c>
       <c r="F165">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>35656</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J165">
-        <v>100</v>
+        <v>0.12</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>99.62</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M165">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7178,37 +7178,37 @@
         <v>14</v>
       </c>
       <c r="C166">
-        <v>400404</v>
+        <v>35858</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>136</v>
+        <v>35814</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>35713</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H166">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>99.72</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L166">
-        <v>100</v>
+        <v>0.07</v>
       </c>
       <c r="M166">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7219,37 +7219,37 @@
         <v>14</v>
       </c>
       <c r="C167">
-        <v>400405</v>
+        <v>35859</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>76</v>
+        <v>33841</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>9222</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>24585</v>
       </c>
       <c r="H167">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>72.65</v>
       </c>
       <c r="L167">
-        <v>100</v>
+        <v>0.08</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7260,37 +7260,37 @@
         <v>14</v>
       </c>
       <c r="C168">
-        <v>400406</v>
+        <v>35860</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
       </c>
       <c r="E168">
-        <v>76</v>
+        <v>36183</v>
       </c>
       <c r="F168">
-        <v>76</v>
+        <v>36081</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J168">
-        <v>100</v>
+        <v>99.72</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7301,37 +7301,37 @@
         <v>14</v>
       </c>
       <c r="C169">
-        <v>400407</v>
+        <v>35861</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>76</v>
+        <v>36056</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>35940</v>
       </c>
       <c r="G169">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>99.68</v>
       </c>
       <c r="K169">
-        <v>100</v>
+        <v>0.08</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="M169">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7342,37 +7342,37 @@
         <v>14</v>
       </c>
       <c r="C170">
-        <v>400408</v>
+        <v>35862</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>76</v>
+        <v>35646</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>25410</v>
       </c>
       <c r="H170">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>10098</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>71.28</v>
       </c>
       <c r="L170">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="M170">
-        <v>0</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7383,37 +7383,37 @@
         <v>14</v>
       </c>
       <c r="C171">
-        <v>400409</v>
+        <v>35863</v>
       </c>
       <c r="D171" t="s">
         <v>6</v>
       </c>
       <c r="E171">
-        <v>73</v>
+        <v>35809</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G171">
-        <v>73</v>
+        <v>35620</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K171">
-        <v>100</v>
+        <v>99.47</v>
       </c>
       <c r="L171">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="M171">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7424,37 +7424,37 @@
         <v>14</v>
       </c>
       <c r="C172">
-        <v>400410</v>
+        <v>35864</v>
       </c>
       <c r="D172" t="s">
         <v>6</v>
       </c>
       <c r="E172">
-        <v>73</v>
+        <v>35548</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="G172">
-        <v>73</v>
+        <v>34691</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="K172">
-        <v>100</v>
+        <v>97.59</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M172">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7465,37 +7465,37 @@
         <v>14</v>
       </c>
       <c r="C173">
-        <v>400411</v>
+        <v>35865</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>73</v>
+        <v>32441</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>22030</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>10347</v>
       </c>
       <c r="H173">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>67.91</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>31.89</v>
       </c>
       <c r="L173">
-        <v>100</v>
+        <v>0.18</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7506,37 +7506,37 @@
         <v>14</v>
       </c>
       <c r="C174">
-        <v>400412</v>
+        <v>35866</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
       <c r="E174">
-        <v>73</v>
+        <v>38407</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>66</v>
+        <v>38150</v>
       </c>
       <c r="I174">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L174">
-        <v>90.41</v>
+        <v>99.33</v>
       </c>
       <c r="M174">
-        <v>9.59</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7547,37 +7547,37 @@
         <v>14</v>
       </c>
       <c r="C175">
-        <v>400413</v>
+        <v>35867</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>73</v>
+        <v>38223</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>37576</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H175">
-        <v>66</v>
+        <v>505</v>
       </c>
       <c r="I175">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>98.31</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L175">
-        <v>90.41</v>
+        <v>1.32</v>
       </c>
       <c r="M175">
-        <v>9.59</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7588,37 +7588,37 @@
         <v>14</v>
       </c>
       <c r="C176">
-        <v>400414</v>
+        <v>35868</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E176">
-        <v>72</v>
+        <v>43862</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>43495</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H176">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>99.16</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L176">
-        <v>100</v>
+        <v>0.65</v>
       </c>
       <c r="M176">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7629,37 +7629,37 @@
         <v>14</v>
       </c>
       <c r="C177">
-        <v>400415</v>
+        <v>35869</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E177">
-        <v>72</v>
+        <v>42904</v>
       </c>
       <c r="F177">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>42406</v>
       </c>
       <c r="J177">
-        <v>100</v>
+        <v>0.16</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M177">
-        <v>0</v>
+        <v>98.84</v>
       </c>
     </row>
   </sheetData>
